--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1814.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1814.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.189458010485524</v>
+        <v>0.9866521954536438</v>
       </c>
       <c r="B1">
-        <v>2.291803878255809</v>
+        <v>1.383930444717407</v>
       </c>
       <c r="C1">
-        <v>3.253461162088637</v>
+        <v>5.736277103424072</v>
       </c>
       <c r="D1">
-        <v>3.580591174121332</v>
+        <v>1.682805299758911</v>
       </c>
       <c r="E1">
-        <v>1.152660309044773</v>
+        <v>1.033794641494751</v>
       </c>
     </row>
   </sheetData>
